--- a/クラス設計.xlsx
+++ b/クラス設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BCDA5D-AB04-2C46-9F24-46EC0A114C4D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6835C2-E8FC-A44B-90CB-AFB6132DC890}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="17040" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
   </bookViews>
@@ -238,12 +238,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>block_used_check(usedBlocks),
-settable_area_exist_check(selectedBlock),
-cancel_selected()</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>make_board(縦横),
 force_quit()</t>
     <rPh sb="11" eb="13">
@@ -252,13 +246,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>color,
-usedBlocks,
-board,
-passed</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>choiceAction(ブロック入力 or パスの入力)</t>
     <rPh sb="17" eb="19">
       <t xml:space="preserve">ニュウリョク </t>
@@ -266,6 +253,19 @@
     <rPh sb="26" eb="28">
       <t xml:space="preserve">ニュウリョク </t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>color,
+remainingBlocks,
+board,
+passed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>block_used_check(remainingBlocks),
+settable_area_exist_check(selectedBlock),
+cancel_selected()</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -635,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DEE46DD-3150-964A-8845-D5DD08E670F2}">
   <dimension ref="B2:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -713,7 +713,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="84">
@@ -740,7 +740,7 @@
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="42">
@@ -759,7 +759,7 @@
         <v>22</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="42">

--- a/クラス設計.xlsx
+++ b/クラス設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6835C2-E8FC-A44B-90CB-AFB6132DC890}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EE54AC-86C5-E344-A016-7EAF28B3BA18}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="17040" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
+    <workbookView xWindow="7500" yWindow="460" windowWidth="21040" windowHeight="17040" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -636,7 +636,7 @@
   <dimension ref="B2:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/クラス設計.xlsx
+++ b/クラス設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6EE54AC-86C5-E344-A016-7EAF28B3BA18}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B686A2E-C283-474F-9AE1-D8F3788E79B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7500" yWindow="460" windowWidth="21040" windowHeight="17040" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
   </bookViews>
@@ -138,13 +138,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>check_passed(パスの有無)</t>
-    <rPh sb="16" eb="18">
-      <t xml:space="preserve">ウム </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ターンを進める
 (Turn)</t>
     <rPh sb="4" eb="5">
@@ -246,16 +239,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>choiceAction(ブロック入力 or パスの入力)</t>
-    <rPh sb="17" eb="19">
-      <t xml:space="preserve">ニュウリョク </t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t xml:space="preserve">ニュウリョク </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>color,
 remainingBlocks,
 board,
@@ -266,6 +249,21 @@
     <t>block_used_check(remainingBlocks),
 settable_area_exist_check(selectedBlock),
 cancel_selected()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>check_passed(パスの有無)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>startGame(),
+choiceAction(ブロック入力 or パスの入力)</t>
+    <rPh sb="29" eb="31">
+      <t xml:space="preserve">ニュウリョク </t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t xml:space="preserve">ニュウリョク </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -636,7 +634,7 @@
   <dimension ref="B2:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -677,7 +675,7 @@
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:13">
@@ -713,7 +711,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="84">
@@ -721,7 +719,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="42">
@@ -729,61 +727,61 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="42">
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" t="s">
-        <v>30</v>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="42">
       <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
         <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="63">
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="42">
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="42">
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="42">
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/クラス設計.xlsx
+++ b/クラス設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B686A2E-C283-474F-9AE1-D8F3788E79B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEF3313-ED5D-7246-9F02-09F51563CA3C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7500" yWindow="460" windowWidth="21040" windowHeight="17040" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
   </bookViews>
@@ -199,17 +199,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ブロックの置く位置
-(BlockPosition)</t>
-    <rPh sb="5" eb="6">
-      <t xml:space="preserve">オク </t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t xml:space="preserve">イチ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>a~u(shape, influ, score)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -256,13 +245,24 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>startGame(),
-choiceAction(ブロック入力 or パスの入力)</t>
-    <rPh sb="29" eb="31">
+    <t>start_game(),
+choice_action(ブロック入力 or パスの入力)</t>
+    <rPh sb="31" eb="33">
       <t xml:space="preserve">ニュウリョク </t>
     </rPh>
-    <rPh sb="38" eb="40">
+    <rPh sb="40" eb="42">
       <t xml:space="preserve">ニュウリョク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックの置く位置
+(BlockPosition,)</t>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">オク </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">イチ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -634,12 +634,12 @@
   <dimension ref="B2:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="38.85546875" customWidth="1"/>
     <col min="6" max="6" width="2.7109375" bestFit="1" customWidth="1"/>
@@ -711,7 +711,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="84">
@@ -719,7 +719,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="42">
@@ -727,7 +727,7 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="42">
@@ -738,7 +738,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="42">
@@ -757,7 +757,7 @@
         <v>21</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="42">
@@ -765,7 +765,7 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="42">
@@ -773,15 +773,15 @@
         <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="42">
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/クラス設計.xlsx
+++ b/クラス設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEF3313-ED5D-7246-9F02-09F51563CA3C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741D0C2A-F4E0-7842-8E23-F78DC6316B0B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7500" yWindow="460" windowWidth="21040" windowHeight="17040" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
   </bookViews>
@@ -101,19 +101,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>whoTurn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tileLength,
-tileNumber,
-BLANK等,
-GREEN等,
-screenWidth等,
-surface</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>初期設定
 (Game)</t>
     <rPh sb="0" eb="4">
@@ -170,16 +157,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>selectedBlock(種類+向き)</t>
-    <rPh sb="14" eb="16">
-      <t xml:space="preserve">シュルイ </t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t xml:space="preserve">ムキ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ブロックの種類
 (BlockTable)</t>
     <rPh sb="5" eb="7">
@@ -228,13 +205,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>color,
-remainingBlocks,
-board,
-passed</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>block_used_check(remainingBlocks),
 settable_area_exist_check(selectedBlock),
 cancel_selected()</t>
@@ -263,6 +233,36 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t xml:space="preserve">イチ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TILE_LENGTH,
+TILE_NUMBER,
+BLANK等,
+GREEN等,
+SCREEN_WIDTH等,
+surface</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>color,
+remaining_blocks,
+board,
+passed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>who_turn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>selected_block(種類+向き)</t>
+    <rPh sb="15" eb="17">
+      <t xml:space="preserve">シュルイ </t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t xml:space="preserve">ムキ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -634,13 +634,13 @@
   <dimension ref="B2:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.85546875" customWidth="1"/>
     <col min="6" max="6" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -675,7 +675,7 @@
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:13">
@@ -705,83 +705,83 @@
     </row>
     <row r="7" spans="2:13" ht="126">
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="84">
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="42">
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="42">
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="42">
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="63">
       <c r="B13" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="42">
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="42">
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="42">
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/クラス設計.xlsx
+++ b/クラス設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741D0C2A-F4E0-7842-8E23-F78DC6316B0B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9A8457-1510-0C4E-86A2-D38B076A007C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7500" yWindow="460" windowWidth="21040" windowHeight="17040" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>初期設定</t>
     <rPh sb="0" eb="4">
@@ -113,14 +113,6 @@
 (Player)</t>
     <rPh sb="6" eb="8">
       <t xml:space="preserve">ジョウタイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>終了条件
-(Judge)</t>
-    <rPh sb="0" eb="4">
-      <t>シュウリョウｊ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -263,6 +255,44 @@
     </rPh>
     <rPh sb="18" eb="19">
       <t xml:space="preserve">ムキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了条件
+(Judgement)</t>
+    <rPh sb="0" eb="4">
+      <t>シュウリョウｊ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gameに入れる</t>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">イレル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メソッドとか少ないから分割しすぎかも</t>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">スクナイ </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">ブンカツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>player.moveBlockみたいに主語と述語になってるのが良い</t>
+    <rPh sb="20" eb="22">
+      <t xml:space="preserve">シュゴ </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">ジュツゴ </t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t xml:space="preserve">ヨイ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -633,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DEE46DD-3150-964A-8845-D5DD08E670F2}">
   <dimension ref="B2:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -675,7 +705,7 @@
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:13">
@@ -708,10 +738,10 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="84">
@@ -719,69 +749,78 @@
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="42">
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="42">
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="42">
       <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="s">
-        <v>16</v>
+      <c r="E12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="63">
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="2:13" ht="42">
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="42">
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="42">
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/クラス設計.xlsx
+++ b/クラス設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9A8457-1510-0C4E-86A2-D38B076A007C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60BCACC-2067-F440-84F9-9A66605420ED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7500" yWindow="460" windowWidth="21040" windowHeight="17040" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>初期設定</t>
     <rPh sb="0" eb="4">
@@ -293,6 +293,13 @@
     </rPh>
     <rPh sb="32" eb="33">
       <t xml:space="preserve">ヨイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここもクラスとしては微妙</t>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">ビミョウ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -664,7 +671,7 @@
   <dimension ref="B2:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -776,6 +783,9 @@
       <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="2:13" ht="42">
       <c r="B12" s="1" t="s">

--- a/クラス設計.xlsx
+++ b/クラス設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60BCACC-2067-F440-84F9-9A66605420ED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D82598-713B-B24F-9576-6065E9C275A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7500" yWindow="460" windowWidth="21040" windowHeight="17040" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
   </bookViews>

--- a/クラス設計.xlsx
+++ b/クラス設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D82598-713B-B24F-9576-6065E9C275A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778EFADC-E713-1D4F-9FC2-4B06A8503D84}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="460" windowWidth="21040" windowHeight="17040" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
+    <workbookView xWindow="7500" yWindow="460" windowWidth="30900" windowHeight="21140" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>初期設定</t>
     <rPh sb="0" eb="4">
@@ -214,17 +214,6 @@
     </rPh>
     <rPh sb="40" eb="42">
       <t xml:space="preserve">ニュウリョク </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブロックの置く位置
-(BlockPosition,)</t>
-    <rPh sb="5" eb="6">
-      <t xml:space="preserve">オク </t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t xml:space="preserve">イチ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -267,23 +256,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Gameに入れる</t>
-    <rPh sb="5" eb="6">
-      <t xml:space="preserve">イレル </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メソッドとか少ないから分割しすぎかも</t>
-    <rPh sb="6" eb="7">
-      <t xml:space="preserve">スクナイ </t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t xml:space="preserve">ブンカツ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>player.moveBlockみたいに主語と述語になってるのが良い</t>
     <rPh sb="20" eb="22">
       <t xml:space="preserve">シュゴ </t>
@@ -300,6 +272,141 @@
     <t>ここもクラスとしては微妙</t>
     <rPh sb="10" eb="12">
       <t xml:space="preserve">ビミョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックの置く位置
+(BlockPosition)</t>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">オク </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">イチ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設計図？</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">セッケイズ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>切り方はむずかしい、１つのまとまり</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">キリカタハ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>責務次第</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">セキム </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">シダイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gameに入れる、そのメソッドで判断する</t>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">イレル </t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t xml:space="preserve">ハンダン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メソッドとか少ないから分割しすぎかも、</t>
+    <rPh sb="6" eb="7">
+      <t xml:space="preserve">スクナイ </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">ブンカツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラスではない、種類ってクラスはない、Blockの中にプロパティで、ここにあるのはただのデータ</t>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">シュルイ </t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t xml:space="preserve">ナカニ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どう作るか次第</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボードクラスが持つのが向きや位置（置いたあと）</t>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">モツ </t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t xml:space="preserve">ムキ </t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t xml:space="preserve">イチ </t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t xml:space="preserve">オイタアト </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実際のゲームはボードが一個だからボード</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジッサイノ </t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t xml:space="preserve">イッコ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それぞれのマスが、どの色が置けるかを持てばひとつになる</t>
+    <rPh sb="11" eb="12">
+      <t xml:space="preserve">イロ </t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t xml:space="preserve">オケル </t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t xml:space="preserve">モテバ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どのマスに何が置いてあるがでーたとしてある、どの色がどこに置けるかは都度計算する</t>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">ナニガオイテアルガ </t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t xml:space="preserve">オケルカハ </t>
+    </rPh>
+    <rPh sb="34" eb="38">
+      <t xml:space="preserve">ツドケイサン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既に置いてあるマスは２重管理になってるから不具合でやすい</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">スデニオイテアル </t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t xml:space="preserve">フグアイ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -668,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DEE46DD-3150-964A-8845-D5DD08E670F2}">
-  <dimension ref="B2:M17"/>
+  <dimension ref="B2:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -745,10 +852,13 @@
         <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="84">
@@ -756,21 +866,21 @@
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="42">
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="42">
@@ -778,13 +888,13 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="42">
@@ -795,7 +905,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="63">
@@ -803,18 +913,24 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" ht="42">
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="189">
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="42">
@@ -824,13 +940,56 @@
       <c r="D16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" ht="42">
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="42">
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="H19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="H20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="H21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="H22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="H23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="H24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="H26" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/クラス設計.xlsx
+++ b/クラス設計.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778EFADC-E713-1D4F-9FC2-4B06A8503D84}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7343B057-D8D1-C342-A0F5-443F01B382C3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="460" windowWidth="30900" windowHeight="21140" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>初期設定</t>
     <rPh sb="0" eb="4">
@@ -227,13 +227,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>color,
-remaining_blocks,
-board,
-passed</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>who_turn</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -407,6 +400,53 @@
     </rPh>
     <rPh sb="21" eb="24">
       <t xml:space="preserve">フグアイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボードの状態
+(Board)</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">ジョウタイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>color,
+remaining_blocks,
+passed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビュー操作用のクラスを作りたい（）</t>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ソウサ </t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">ヨウノ </t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t xml:space="preserve">ツクリタ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役割分割がクラス理由、オブジェクト指向の考え方</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">ヤクワリブンカツ </t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t xml:space="preserve">シコウ </t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t xml:space="preserve">カンガエカタ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックの中身ははっしゅでok</t>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ナカミ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -775,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DEE46DD-3150-964A-8845-D5DD08E670F2}">
-  <dimension ref="B2:M26"/>
+  <dimension ref="B2:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -858,138 +898,159 @@
         <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="84">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="63">
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="42">
       <c r="B9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="2:13" ht="42">
       <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="42">
+      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="42">
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="63">
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="42">
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="189">
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="63">
-      <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" ht="189">
-      <c r="B15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="42">
-      <c r="B16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="42">
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="42">
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="H19" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="20" spans="2:8">
       <c r="H20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="2:8">
       <c r="H21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="2:8">
       <c r="H22" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="2:8">
       <c r="H23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="2:8">
       <c r="H24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="2:8">
       <c r="H25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="2:8">
       <c r="H26" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="H28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="H29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="H30" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/クラス設計.xlsx
+++ b/クラス設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7343B057-D8D1-C342-A0F5-443F01B382C3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606C9F6D-7A64-1442-86D9-2BE40E5419C5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
   </bookViews>
@@ -31,56 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
-  <si>
-    <t>初期設定</t>
-    <rPh sb="0" eb="4">
-      <t xml:space="preserve">ショキセッテイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ターンを進める</t>
-    <rPh sb="4" eb="5">
-      <t xml:space="preserve">ススメル </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>終了条件</t>
-    <rPh sb="0" eb="4">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スキップ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブロックの種類</t>
-    <rPh sb="5" eb="7">
-      <t xml:space="preserve">シュルイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブロックの向き</t>
-    <rPh sb="5" eb="6">
-      <t xml:space="preserve">ムキ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブロックの置く位置</t>
-    <rPh sb="5" eb="6">
-      <t>オク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t xml:space="preserve">イチ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>プロパティ</t>
     <phoneticPr fontId="1"/>
@@ -91,13 +42,6 @@
   </si>
   <si>
     <t>クラス名</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレイヤーの状態</t>
-    <rPh sb="6" eb="8">
-      <t xml:space="preserve">ジョウタイ </t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -117,169 +61,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ターンを進める
-(Turn)</t>
-    <rPh sb="4" eb="5">
-      <t xml:space="preserve">ススメル </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スキップ
-(Skip)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>skip()</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブロックを置く
-(Block)</t>
-    <rPh sb="5" eb="6">
-      <t xml:space="preserve">オク </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブロックを置く</t>
-    <rPh sb="5" eb="6">
-      <t xml:space="preserve">オク </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブロックの種類
-(BlockTable)</t>
-    <rPh sb="5" eb="7">
-      <t xml:space="preserve">シュルイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブロックの向き
-(BlockDirection)</t>
-    <rPh sb="4" eb="5">
-      <t>ノ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t xml:space="preserve">ムキ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>a~u(shape, influ, score)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0~7に対応する回転</t>
-    <rPh sb="4" eb="6">
-      <t xml:space="preserve">タイオウ </t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t xml:space="preserve">カイテン </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>translate_to_coordinate(マウスのクリック位置)</t>
-    <rPh sb="32" eb="34">
-      <t xml:space="preserve">イチ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>make_board(縦横),
-force_quit()</t>
-    <rPh sb="11" eb="13">
-      <t xml:space="preserve">タテヨコ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>block_used_check(remainingBlocks),
-settable_area_exist_check(selectedBlock),
-cancel_selected()</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>check_passed(パスの有無)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>start_game(),
-choice_action(ブロック入力 or パスの入力)</t>
-    <rPh sb="31" eb="33">
-      <t xml:space="preserve">ニュウリョク </t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t xml:space="preserve">ニュウリョク </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TILE_LENGTH,
-TILE_NUMBER,
-BLANK等,
-GREEN等,
-SCREEN_WIDTH等,
-surface</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>who_turn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>selected_block(種類+向き)</t>
-    <rPh sb="15" eb="17">
-      <t xml:space="preserve">シュルイ </t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t xml:space="preserve">ムキ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>終了条件
-(Judgement)</t>
-    <rPh sb="0" eb="4">
-      <t>シュウリョウｊ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>player.moveBlockみたいに主語と述語になってるのが良い</t>
-    <rPh sb="20" eb="22">
-      <t xml:space="preserve">シュゴ </t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t xml:space="preserve">ジュツゴ </t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t xml:space="preserve">ヨイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ここもクラスとしては微妙</t>
-    <rPh sb="10" eb="12">
-      <t xml:space="preserve">ビミョウ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブロックの置く位置
-(BlockPosition)</t>
-    <rPh sb="5" eb="6">
-      <t xml:space="preserve">オク </t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t xml:space="preserve">イチ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>設計図？</t>
     <rPh sb="0" eb="3">
       <t xml:space="preserve">セッケイズ </t>
@@ -301,44 +82,6 @@
     <rPh sb="2" eb="4">
       <t xml:space="preserve">シダイ </t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ok</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Gameに入れる、そのメソッドで判断する</t>
-    <rPh sb="5" eb="6">
-      <t xml:space="preserve">イレル </t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t xml:space="preserve">ハンダン </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メソッドとか少ないから分割しすぎかも、</t>
-    <rPh sb="6" eb="7">
-      <t xml:space="preserve">スクナイ </t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t xml:space="preserve">ブンカツ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クラスではない、種類ってクラスはない、Blockの中にプロパティで、ここにあるのはただのデータ</t>
-    <rPh sb="8" eb="10">
-      <t xml:space="preserve">シュルイ </t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t xml:space="preserve">ナカニ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>どう作るか次第</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -448,6 +191,117 @@
     <rPh sb="5" eb="7">
       <t xml:space="preserve">ナカミ </t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TILE_LENGTH,
+TILE_NUMBER,
+SCREEN_WIDTH等,
+surface,
+who_turn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックの状態
+(Block)</t>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ジョウタイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DBとして同ファイルにa~uのarrayを持つ</t>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">ドウ </t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t xml:space="preserve">モツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BLANK等,
+GREEN等,
+status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>start_game(),
+force_quit(),
+check_passed(Player.passed)</t>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">タテヨコ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>input(),
+select_block(),
+select_position(pygame.mouse.get_pos()),
+cancel_selected(),
+skip()</t>
+    <rPh sb="21" eb="22">
+      <t xml:space="preserve">シュルイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>make_board(TILE_NUMBER等定数),
+settable_area_exist_check(selected_block),
+settable_check(selected_block),
+change_status(selected_block)</t>
+    <rPh sb="22" eb="23">
+      <t xml:space="preserve">トウ </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">テイスウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>call_block(selected_shape),
+rotate_block(selected_direction)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←このメソッドの引数の変数名はindexも付けた方がいいですか？</t>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">ヒキスウ </t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t xml:space="preserve">ヘンスウメイ </t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t xml:space="preserve">ツケタ </t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t xml:space="preserve">ホウガ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>先輩のコメント</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">センパイノ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ビコウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シツモン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>selected_block</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -455,7 +309,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -468,6 +322,14 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -494,12 +356,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -815,242 +680,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DEE46DD-3150-964A-8845-D5DD08E670F2}">
-  <dimension ref="B2:M30"/>
+  <dimension ref="B2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
     <col min="4" max="4" width="38.85546875" customWidth="1"/>
-    <col min="6" max="6" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="76.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13">
-      <c r="F2">
+    <row r="2" spans="2:6">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="105">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="2:6" ht="105">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="84">
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="42">
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="F8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="F14" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13">
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="J3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" t="s">
+    </row>
+    <row r="15" spans="2:6">
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13">
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="K4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13">
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" ht="126">
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" ht="63">
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" ht="42">
-      <c r="B9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="2:13" ht="42">
-      <c r="B10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="42">
-      <c r="B11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="42">
-      <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="63">
-      <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="189">
-      <c r="B16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="42">
-      <c r="B17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="42">
-      <c r="B18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="H20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="H21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="H22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="H23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="H24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="H25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="H26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="H27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="H28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="H29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="H30" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/クラス設計.xlsx
+++ b/クラス設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606C9F6D-7A64-1442-86D9-2BE40E5419C5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0961BF95-1A7F-594E-87A2-88DDE2B63928}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
   </bookViews>

--- a/クラス設計.xlsx
+++ b/クラス設計.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/python/blokus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0961BF95-1A7F-594E-87A2-88DDE2B63928}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8C787E-5E34-C24C-A362-A1F9FEEBB1DF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{6DF9F015-7ECC-504D-967A-350B39C806BF}"/>
   </bookViews>
@@ -246,19 +246,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>make_board(TILE_NUMBER等定数),
-settable_area_exist_check(selected_block),
-settable_check(selected_block),
-change_status(selected_block)</t>
-    <rPh sb="22" eb="23">
-      <t xml:space="preserve">トウ </t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t xml:space="preserve">テイスウ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>call_block(selected_shape),
 rotate_block(selected_direction)</t>
     <phoneticPr fontId="1"/>
@@ -301,7 +288,20 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>selected_block</t>
+    <t>selected</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>make_board(TILE_NUMBER等定数),
+settable_area_exist_check(Block.selected),
+settable_check(Block.selected),
+change_status(Block.selected)</t>
+    <rPh sb="22" eb="23">
+      <t xml:space="preserve">トウ </t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t xml:space="preserve">テイスウ </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -683,7 +683,7 @@
   <dimension ref="B2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -710,10 +710,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
         <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="105">
@@ -747,7 +747,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="42">
@@ -755,21 +755,21 @@
         <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="F8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:6">
